--- a/static/Bangladesh_Flood_Events.xlsx
+++ b/static/Bangladesh_Flood_Events.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\vkhandekar\project_flood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\vkhandekar\project_flood\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1529870C-5BEE-415B-A3D6-9F17EF2BA3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076E8512-9E0D-4613-8E9C-03F0B8E5B5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2AA07E2-0BC7-4BF0-B51F-CAE650F03413}"/>
+    <workbookView xWindow="28680" yWindow="-7320" windowWidth="29040" windowHeight="15720" xr2:uid="{B2AA07E2-0BC7-4BF0-B51F-CAE650F03413}"/>
   </bookViews>
   <sheets>
     <sheet name="Bangladesh_Flood_Events" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="281">
   <si>
     <t>system:index</t>
   </si>
@@ -854,6 +867,15 @@
   </si>
   <si>
     <t>DFO_4673_From_20180901_to_20180907</t>
+  </si>
+  <si>
+    <t>Non flood</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Flood</t>
   </si>
 </sst>
 </file>
@@ -1337,10 +1359,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1716,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA515849-EE8A-4049-AB4A-1263251AC8C9}">
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:AD104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1728,7 +1751,7 @@
     <col min="25" max="25" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1807,8 +1830,17 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1884,8 +1916,19 @@
       <c r="Z2">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB2">
+        <v>5024</v>
+      </c>
+      <c r="AC2">
+        <f>AD2-AB2</f>
+        <v>1539</v>
+      </c>
+      <c r="AD2">
+        <f>Y104-X2</f>
+        <v>6563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1961,8 +2004,16 @@
       <c r="Z3">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB3">
+        <f>AB2/$AD$2</f>
+        <v>0.76550358067956725</v>
+      </c>
+      <c r="AC3">
+        <f>AC2/$AD$2</f>
+        <v>0.23449641932043272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2039,7 +2090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2116,7 +2167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2193,7 +2244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2270,7 +2321,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2347,7 +2398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2423,8 +2474,12 @@
       <c r="Z9">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AD9" s="3">
+        <f>56/AC3</f>
+        <v>238.80961663417804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2501,7 +2556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2578,7 +2633,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -2655,7 +2710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -2732,7 +2787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2809,7 +2864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -2886,7 +2941,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>67</v>
       </c>
